--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -810,6 +810,10 @@
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>addr</t>
   </si>
   <si>
@@ -817,6 +821,271 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Usual-Residence</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/CBSAddressUseVS</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>Address-at-Diagnosis</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1402,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1412,7 +1681,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1449,7 +1718,7 @@
     <col min="36" max="36" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.1328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.671875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4565,7 +4834,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
@@ -4623,16 +4892,14 @@
         <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>246</v>
@@ -4650,26 +4917,28 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4681,26 +4950,28 @@
         <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4725,13 +4996,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4749,13 +5020,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4764,16 +5035,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4781,7 +5052,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4804,20 +5075,16 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4865,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4877,19 +5144,19 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4897,11 +5164,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4920,20 +5187,18 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4969,19 +5234,19 @@
         <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4993,19 +5258,19 @@
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5013,7 +5278,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5021,34 +5286,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5058,10 +5323,10 @@
         <v>44</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>44</v>
@@ -5073,13 +5338,11 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5097,31 +5360,31 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5129,7 +5392,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5149,18 +5412,20 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5173,7 +5438,7 @@
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5185,13 +5450,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5209,7 +5474,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5221,10 +5486,10 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5233,7 +5498,7 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5241,18 +5506,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5261,21 +5526,23 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5287,7 +5554,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5323,22 +5590,22 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5347,7 +5614,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5355,11 +5622,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5372,26 +5639,22 @@
         <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5403,7 +5666,7 @@
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>44</v>
@@ -5439,7 +5702,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5451,10 +5714,10 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5463,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5471,18 +5734,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5491,10 +5754,10 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>296</v>
@@ -5503,9 +5766,7 @@
         <v>297</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5517,7 +5778,7 @@
         <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>44</v>
@@ -5529,37 +5790,37 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5568,16 +5829,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5585,11 +5846,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5605,10 +5866,10 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>304</v>
@@ -5616,10 +5877,10 @@
       <c r="L37" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>306</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5631,7 +5892,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5667,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5682,16 +5943,16 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5699,18 +5960,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5719,23 +5980,19 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5783,13 +6040,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -5798,16 +6055,16 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5815,11 +6072,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5835,21 +6092,19 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5861,7 +6116,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -5897,7 +6152,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5912,16 +6167,16 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5929,7 +6184,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5949,21 +6204,21 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5987,13 +6242,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6011,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6026,16 +6281,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6043,7 +6298,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6063,20 +6318,20 @@
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6089,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>44</v>
@@ -6125,7 +6380,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6134,32 +6389,34 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6171,25 +6428,29 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6237,13 +6498,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6252,16 +6513,16 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6269,7 +6530,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6280,7 +6541,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6292,20 +6553,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6353,25 +6610,25 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>132</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6385,18 +6642,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6408,15 +6665,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6453,31 +6712,31 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>133</v>
@@ -6497,41 +6756,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6540,10 +6801,10 @@
         <v>44</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>44</v>
@@ -6555,13 +6816,11 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6579,22 +6838,22 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6603,7 +6862,7 @@
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6611,43 +6870,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6659,7 +6916,7 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>44</v>
@@ -6671,13 +6928,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6695,22 +6952,22 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -6719,7 +6976,7 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6727,7 +6984,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6735,7 +6992,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6747,22 +7004,22 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6775,7 +7032,7 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -6787,13 +7044,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6811,10 +7068,10 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>51</v>
@@ -6826,16 +7083,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6843,7 +7100,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6854,7 +7111,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6863,23 +7120,19 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6891,7 +7144,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>44</v>
@@ -6927,13 +7180,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -6942,16 +7195,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6959,18 +7212,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -6979,20 +7232,18 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7005,7 +7256,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7041,13 +7292,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7056,16 +7307,16 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7073,11 +7324,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7096,20 +7347,18 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7121,7 +7370,7 @@
         <v>44</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>44</v>
@@ -7157,7 +7406,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7172,16 +7421,16 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7189,43 +7438,39 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7273,13 +7518,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7288,16 +7533,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7305,11 +7550,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7325,16 +7570,16 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7349,7 +7594,7 @@
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7385,7 +7630,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7397,10 +7642,10 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -7409,7 +7654,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7417,18 +7662,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7437,19 +7682,19 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7499,22 +7744,22 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7523,7 +7768,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7531,42 +7776,40 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7579,7 +7822,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7615,22 +7858,22 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7639,7 +7882,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7647,7 +7890,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7655,7 +7898,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7667,21 +7910,21 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7705,13 +7948,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7729,10 +7972,10 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>51</v>
@@ -7744,16 +7987,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7761,7 +8004,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7769,7 +8012,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7781,19 +8024,23 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7817,13 +8064,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -7841,10 +8088,10 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>51</v>
@@ -7856,7 +8103,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>133</v>
@@ -7865,14 +8112,2990 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7882,7 +11105,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="524">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>The Case Based Surveillance Patient Profile is loosely based upon US Core Patient Profile, which is in turn based on the core FHIR Patient Resource. It is designed to meet the needs of US public health case based surveillance while maintaining as much alignment with US Core profiles as possible.</t>
+    <t>The Case Based Surveillance Patient Profile is loosely based upon the US Core Patient Profile, which is in turn based on the core FHIR Patient Resource. It is designed to meet the needs of US public health case based surveillance while maintaining as much alignment with US Core profiles as possible.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -404,6 +404,83 @@
     <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-genderIdentity</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7610</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthPlace}
+</t>
+  </si>
+  <si>
+    <t>Place of Birth for patient</t>
+  </si>
+  <si>
+    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -458,18 +535,6 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
@@ -479,12 +544,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Patient.identifier.use</t>
   </si>
   <si>
@@ -518,10 +577,6 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -532,9 +587,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -1081,11 +1133,11 @@
     <t>Patient.address.postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
+    <t>Zip
+Zip Code</t>
+  </si>
+  <si>
+    <t>US Zip Codes</t>
   </si>
   <si>
     <t>A postal code designating a region defined by the postal service.</t>
@@ -1155,6 +1207,13 @@
   </si>
   <si>
     <t>http://cbsig.chai.gatech.edu/output/ValueSet/CBSAddressUseVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
   </si>
   <si>
     <t>Address-at-Diagnosis</t>
@@ -1743,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1776,7 +1835,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.86328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -3284,39 +3343,35 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
@@ -3364,22 +3419,22 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3394,9 +3449,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3404,33 +3459,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
@@ -3466,16 +3519,16 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>128</v>
@@ -3490,19 +3543,19 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3510,7 +3563,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3518,7 +3571,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3533,22 +3586,24 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>44</v>
@@ -3590,10 +3645,10 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>51</v>
@@ -3605,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3622,18 +3677,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3645,17 +3700,15 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3680,46 +3733,44 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -3734,11 +3785,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3750,29 +3803,25 @@
         <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3796,13 +3845,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3820,22 +3869,22 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3844,7 +3893,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3852,42 +3901,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3912,13 +3961,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3936,22 +3985,22 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3960,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3968,7 +4017,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3979,7 +4028,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>52</v>
@@ -3991,19 +4040,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4016,7 +4063,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4052,13 +4099,13 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
@@ -4067,24 +4114,24 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4092,32 +4139,30 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4130,7 +4175,7 @@
         <v>44</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>44</v>
@@ -4166,7 +4211,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4178,10 +4223,10 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -4190,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -4198,18 +4243,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4218,18 +4263,20 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4266,34 +4313,34 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
@@ -4302,7 +4349,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -4310,7 +4357,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4327,24 +4374,26 @@
         <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4368,13 +4417,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4392,7 +4441,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4407,7 +4456,7 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4416,7 +4465,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4424,7 +4473,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4441,32 +4490,30 @@
         <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P24" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4486,13 +4533,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4510,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4525,16 +4572,16 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4542,7 +4589,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4550,10 +4597,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>52</v>
@@ -4565,19 +4612,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4590,7 +4637,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4626,13 +4673,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4641,24 +4688,24 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4666,13 +4713,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4681,20 +4728,18 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4706,7 +4751,7 @@
         <v>44</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>44</v>
@@ -4742,13 +4787,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4757,24 +4802,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4788,7 +4833,7 @@
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4797,20 +4842,16 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4834,11 +4875,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4856,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4871,24 +4914,24 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4902,7 +4945,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
@@ -4911,20 +4954,18 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4972,7 +5013,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4987,24 +5028,24 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,24 +5068,26 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>44</v>
       </c>
@@ -5088,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5103,24 +5146,24 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5143,19 +5186,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5192,17 +5235,19 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5217,16 +5262,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5234,7 +5279,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5245,7 +5290,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5254,19 +5299,23 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5314,73 +5363,75 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5404,63 +5455,61 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5474,28 +5523,28 @@
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5508,7 +5557,7 @@
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5520,13 +5569,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5544,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5559,24 +5608,24 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5590,27 +5639,29 @@
         <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5622,7 +5673,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5634,13 +5685,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5658,7 +5709,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5673,16 +5724,16 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5690,7 +5741,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5701,10 +5752,10 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
@@ -5713,19 +5764,19 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5738,7 +5789,7 @@
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>44</v>
@@ -5762,25 +5813,23 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5789,16 +5838,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5806,7 +5855,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5817,7 +5866,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5826,16 +5875,16 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5850,7 +5899,7 @@
         <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>44</v>
@@ -5886,22 +5935,22 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5910,7 +5959,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5918,18 +5967,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5941,15 +5990,17 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5986,34 +6037,34 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -6028,9 +6079,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6041,28 +6092,32 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -6074,7 +6129,7 @@
         <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -6086,44 +6141,46 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6132,19 +6189,17 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6156,24 +6211,26 @@
         <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6186,7 +6243,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6198,13 +6255,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6222,22 +6279,22 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6246,7 +6303,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6254,7 +6311,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6274,19 +6331,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6298,7 +6359,7 @@
         <v>44</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>44</v>
@@ -6307,7 +6368,7 @@
         <v>44</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>44</v>
@@ -6334,7 +6395,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6346,10 +6407,10 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6358,29 +6419,29 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6392,10 +6453,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6410,7 +6471,7 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>44</v>
@@ -6446,13 +6507,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6461,7 +6522,7 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6470,7 +6531,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6478,11 +6539,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6498,20 +6559,18 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6524,7 +6583,7 @@
         <v>44</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>44</v>
@@ -6560,7 +6619,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6572,10 +6631,10 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6584,7 +6643,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6592,18 +6651,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6612,16 +6671,16 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6660,34 +6719,32 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6696,19 +6753,21 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6718,22 +6777,22 @@
         <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6748,7 +6807,7 @@
         <v>44</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>44</v>
@@ -6784,22 +6843,22 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>128</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6808,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6816,7 +6875,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6836,20 +6895,18 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6871,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>44</v>
@@ -6898,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6910,10 +6967,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6922,19 +6979,19 @@
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6944,7 +7001,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6953,18 +7010,16 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6976,7 +7031,7 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>44</v>
@@ -7012,7 +7067,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7027,7 +7082,7 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7036,21 +7091,19 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7060,7 +7113,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7069,20 +7122,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7094,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7130,13 +7181,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7145,28 +7196,28 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7176,22 +7227,22 @@
         <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7242,7 +7293,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7254,10 +7305,10 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>354</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -7266,48 +7317,46 @@
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7320,7 +7369,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7344,34 +7393,34 @@
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7380,15 +7429,15 @@
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7396,35 +7445,33 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7433,10 +7480,10 @@
         <v>44</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>44</v>
@@ -7448,11 +7495,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7470,7 +7519,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7485,7 +7534,7 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7494,15 +7543,15 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7516,7 +7565,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
@@ -7525,18 +7574,18 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7548,7 +7597,7 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>44</v>
@@ -7560,13 +7609,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7584,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7599,7 +7648,7 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -7608,17 +7657,19 @@
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7630,7 +7681,7 @@
         <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
@@ -7639,19 +7690,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7664,7 +7715,7 @@
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7700,13 +7751,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7715,16 +7766,16 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7732,7 +7783,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7743,7 +7794,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7752,16 +7803,16 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7776,7 +7827,7 @@
         <v>44</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>44</v>
@@ -7812,22 +7863,22 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7836,7 +7887,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7844,18 +7895,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7864,18 +7915,20 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7888,7 +7941,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7912,34 +7965,34 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7948,49 +8001,51 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7999,10 +8054,10 @@
         <v>44</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8014,13 +8069,11 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8038,7 +8091,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8053,7 +8106,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8062,7 +8115,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8070,11 +8123,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8093,15 +8146,17 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8114,7 +8169,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8126,13 +8181,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8150,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8165,7 +8220,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8174,7 +8229,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8182,11 +8237,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8208,13 +8263,17 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8226,7 +8285,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8262,7 +8321,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8277,7 +8336,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8286,15 +8345,15 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8305,10 +8364,10 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8320,14 +8379,12 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8340,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>44</v>
@@ -8376,13 +8433,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8391,7 +8448,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8400,19 +8457,19 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8422,7 +8479,7 @@
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
@@ -8431,18 +8488,16 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8454,7 +8509,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8490,7 +8545,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8505,7 +8560,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8514,21 +8569,19 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8538,7 +8591,7 @@
         <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>44</v>
@@ -8547,20 +8600,18 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8572,7 +8623,7 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>44</v>
@@ -8608,13 +8659,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8623,28 +8674,28 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8654,22 +8705,22 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8720,7 +8771,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8732,10 +8783,10 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>44</v>
@@ -8744,48 +8795,46 @@
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8798,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>44</v>
@@ -8822,34 +8871,34 @@
         <v>44</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>44</v>
@@ -8858,15 +8907,15 @@
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8874,35 +8923,33 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8911,10 +8958,10 @@
         <v>44</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>44</v>
@@ -8926,11 +8973,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8948,7 +8997,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8963,7 +9012,7 @@
         <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -8972,15 +9021,15 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8994,7 +9043,7 @@
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
@@ -9003,18 +9052,18 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9026,7 +9075,7 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>44</v>
@@ -9038,13 +9087,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9062,7 +9111,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9077,7 +9126,7 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9086,17 +9135,19 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9108,7 +9159,7 @@
         <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>44</v>
@@ -9117,19 +9168,19 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9142,7 +9193,7 @@
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9178,13 +9229,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9193,16 +9244,16 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9210,7 +9261,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9221,7 +9272,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9230,16 +9281,16 @@
         <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9254,7 +9305,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9290,22 +9341,22 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>44</v>
@@ -9314,7 +9365,7 @@
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9322,18 +9373,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9342,18 +9393,20 @@
         <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9366,7 +9419,7 @@
         <v>44</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>44</v>
@@ -9390,34 +9443,34 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>44</v>
@@ -9426,49 +9479,51 @@
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9477,10 +9532,10 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9492,13 +9547,11 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9516,7 +9569,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9531,7 +9584,7 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9540,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9548,11 +9601,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9571,15 +9624,17 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9592,7 +9647,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9604,13 +9659,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9628,7 +9683,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9643,7 +9698,7 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9652,7 +9707,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9660,11 +9715,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9686,13 +9741,17 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9704,7 +9763,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9740,7 +9799,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9755,7 +9814,7 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -9764,15 +9823,15 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9783,10 +9842,10 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
@@ -9798,14 +9857,12 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9818,7 +9875,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9854,13 +9911,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -9869,7 +9926,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9878,19 +9935,19 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9900,7 +9957,7 @@
         <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>44</v>
@@ -9909,18 +9966,16 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9932,7 +9987,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9968,7 +10023,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9983,7 +10038,7 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -9992,7 +10047,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10000,11 +10055,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10020,21 +10075,21 @@
         <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10046,7 +10101,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10058,13 +10113,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10082,7 +10137,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10097,28 +10152,28 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10128,29 +10183,25 @@
         <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10198,7 +10249,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10213,60 +10264,56 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
       </c>
@@ -10278,7 +10325,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10314,13 +10361,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10329,24 +10376,24 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10357,32 +10404,30 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>391</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>44</v>
       </c>
@@ -10430,39 +10475,39 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>396</v>
+        <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10476,25 +10521,27 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10506,7 +10553,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>44</v>
@@ -10542,7 +10589,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10554,10 +10601,10 @@
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>141</v>
+        <v>377</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>44</v>
@@ -10566,7 +10613,7 @@
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10574,18 +10621,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10597,18 +10644,18 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>143</v>
+        <v>385</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10632,13 +10679,13 @@
         <v>44</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10656,31 +10703,31 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10688,42 +10735,42 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>125</v>
+        <v>397</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>126</v>
+        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -10772,31 +10819,31 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10804,7 +10851,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10827,17 +10874,19 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>158</v>
+        <v>402</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -10862,13 +10911,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -10886,7 +10935,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10901,16 +10950,16 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10918,7 +10967,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10929,7 +10978,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
@@ -10941,17 +10990,19 @@
         <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11000,31 +11051,31 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>417</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>44</v>
@@ -11032,7 +11083,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11043,7 +11094,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>44</v>
@@ -11055,20 +11106,16 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>122</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -11116,31 +11163,31 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>124</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11148,18 +11195,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>44</v>
@@ -11171,18 +11218,18 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>424</v>
+        <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
       </c>
@@ -11230,31 +11277,31 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11262,40 +11309,42 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>228</v>
+        <v>421</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>430</v>
+        <v>151</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
@@ -11320,13 +11369,13 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>432</v>
+        <v>44</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11344,31 +11393,31 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11376,7 +11425,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11387,7 +11436,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>44</v>
@@ -11399,17 +11448,17 @@
         <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11434,13 +11483,13 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11458,31 +11507,31 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11490,7 +11539,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11513,16 +11562,18 @@
         <v>44</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11570,7 +11621,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11585,16 +11636,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11602,7 +11653,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11625,19 +11676,19 @@
         <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>240</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
@@ -11686,7 +11737,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11701,16 +11752,16 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>450</v>
+        <v>241</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>451</v>
+        <v>125</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11718,7 +11769,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11741,16 +11792,18 @@
         <v>44</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>139</v>
+        <v>444</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
       </c>
@@ -11798,7 +11851,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>140</v>
+        <v>442</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11810,19 +11863,19 @@
         <v>44</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11830,18 +11883,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -11853,18 +11906,18 @@
         <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11888,13 +11941,13 @@
         <v>44</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>44</v>
@@ -11912,31 +11965,31 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>146</v>
+        <v>447</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11944,42 +11997,40 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>126</v>
+        <v>456</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -12028,31 +12079,31 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>94</v>
+        <v>458</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12060,7 +12111,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12068,7 +12119,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>51</v>
@@ -12083,20 +12134,16 @@
         <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>44</v>
       </c>
@@ -12120,13 +12167,13 @@
         <v>44</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>44</v>
@@ -12144,10 +12191,10 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>51</v>
@@ -12159,16 +12206,16 @@
         <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>461</v>
+        <v>125</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12176,7 +12223,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12187,7 +12234,7 @@
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
@@ -12199,19 +12246,19 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>201</v>
+        <v>410</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12260,13 +12307,13 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
@@ -12275,16 +12322,16 @@
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12296,14 +12343,14 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>44</v>
@@ -12315,17 +12362,15 @@
         <v>44</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12374,31 +12419,31 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>471</v>
+        <v>124</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>477</v>
+        <v>125</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12406,18 +12451,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>44</v>
@@ -12426,23 +12471,21 @@
         <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>480</v>
+        <v>164</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>481</v>
+        <v>165</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>44</v>
       </c>
@@ -12490,25 +12533,25 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>479</v>
+        <v>128</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>484</v>
+        <v>44</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>44</v>
@@ -12522,11 +12565,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12545,19 +12588,19 @@
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>489</v>
+        <v>151</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -12606,7 +12649,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12618,13 +12661,13 @@
         <v>44</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>490</v>
+        <v>94</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>44</v>
@@ -12638,7 +12681,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12646,7 +12689,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>51</v>
@@ -12661,16 +12704,20 @@
         <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>138</v>
+        <v>475</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
       </c>
@@ -12694,13 +12741,13 @@
         <v>44</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -12718,10 +12765,10 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>51</v>
@@ -12730,19 +12777,19 @@
         <v>44</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>141</v>
+        <v>479</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>44</v>
+        <v>481</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12750,18 +12797,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
@@ -12773,18 +12820,20 @@
         <v>44</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>143</v>
+        <v>483</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12832,31 +12881,31 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12864,11 +12913,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>401</v>
+        <v>491</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12881,26 +12930,24 @@
         <v>44</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>96</v>
+        <v>492</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>402</v>
+        <v>493</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
       </c>
@@ -12948,7 +12995,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12960,19 +13007,19 @@
         <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>94</v>
+        <v>496</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -12980,7 +13027,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12988,7 +13035,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>51</v>
@@ -13003,18 +13050,20 @@
         <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>495</v>
+        <v>210</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -13062,10 +13111,10 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>51</v>
@@ -13077,16 +13126,16 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>141</v>
+        <v>503</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>499</v>
+        <v>44</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13094,7 +13143,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13102,31 +13151,35 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -13150,13 +13203,13 @@
         <v>44</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>502</v>
+        <v>44</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>503</v>
+        <v>44</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>44</v>
@@ -13174,13 +13227,13 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>44</v>
@@ -13189,10 +13242,10 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>44</v>
@@ -13201,11 +13254,579 @@
         <v>44</v>
       </c>
       <c r="AN100" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13215,7 +13836,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -347,7 +347,7 @@
 </t>
   </si>
   <si>
-    <t>US Core Race Extension</t>
+    <t>CBS Race Extension</t>
   </si>
   <si>
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories:

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -462,7 +462,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7610</t>
+    <t>https://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7610</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1835,7 +1835,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.37890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -462,7 +462,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7610</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7610</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1835,7 +1835,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.37890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="522">
   <si>
     <t>Path</t>
   </si>
@@ -925,10 +925,7 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+    <t>http://cbsig.chai.gatech.edu/output/ValueSet/CBSAddressUseVS</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -1204,9 +1201,6 @@
   </si>
   <si>
     <t>Usual-Residence</t>
-  </si>
-  <si>
-    <t>http://cbsig.chai.gatech.edu/output/ValueSet/CBSAddressUseVS</t>
   </si>
   <si>
     <t xml:space="preserve">Zip
@@ -6143,29 +6137,27 @@
       <c r="W38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6180,16 +6172,16 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6197,7 +6189,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6223,13 +6215,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6243,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6258,28 +6250,28 @@
         <v>171</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6294,7 +6286,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6303,7 +6295,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6311,7 +6303,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6337,16 +6329,16 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6359,43 +6351,43 @@
         <v>44</v>
       </c>
       <c r="S40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6410,16 +6402,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6427,7 +6419,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6453,10 +6445,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6471,43 +6463,43 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6522,16 +6514,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6539,7 +6531,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6565,10 +6557,10 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6651,7 +6643,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6761,10 +6753,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>44</v>
@@ -6786,13 +6778,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6858,7 +6850,7 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6875,7 +6867,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6901,10 +6893,10 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6928,34 +6920,34 @@
         <v>44</v>
       </c>
       <c r="V45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6987,11 +6979,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7013,10 +7005,10 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7031,43 +7023,43 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7082,16 +7074,16 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -7099,11 +7091,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7125,13 +7117,13 @@
         <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7145,43 +7137,43 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7196,16 +7188,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7213,11 +7205,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7239,10 +7231,10 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7293,7 +7285,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7308,16 +7300,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7325,11 +7317,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7351,10 +7343,10 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7369,43 +7361,43 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7420,16 +7412,16 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7437,7 +7429,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7463,13 +7455,13 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7519,7 +7511,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7534,16 +7526,16 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7551,7 +7543,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7577,14 +7569,14 @@
         <v>203</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7597,43 +7589,43 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7648,16 +7640,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7668,7 +7660,7 @@
         <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>44</v>
@@ -8054,7 +8046,7 @@
         <v>44</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>288</v>
@@ -8073,7 +8065,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8091,7 +8083,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8106,16 +8098,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8123,7 +8115,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8149,13 +8141,13 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8169,7 +8161,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8184,28 +8176,28 @@
         <v>171</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8220,7 +8212,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8229,7 +8221,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8237,7 +8229,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8263,16 +8255,16 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8285,43 +8277,43 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8336,16 +8328,16 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8353,7 +8345,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8379,10 +8371,10 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8397,43 +8389,43 @@
         <v>44</v>
       </c>
       <c r="S58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8448,16 +8440,16 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8465,11 +8457,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8491,10 +8483,10 @@
         <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8509,43 +8501,43 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8560,16 +8552,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8577,11 +8569,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8603,13 +8595,13 @@
         <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8623,43 +8615,43 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8674,16 +8666,16 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8691,11 +8683,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8717,10 +8709,10 @@
         <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8771,7 +8763,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8786,16 +8778,16 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8803,11 +8795,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8829,10 +8821,10 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8847,43 +8839,43 @@
         <v>44</v>
       </c>
       <c r="S62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8898,16 +8890,16 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8915,7 +8907,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8941,13 +8933,13 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8997,7 +8989,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9012,16 +9004,16 @@
         <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -9029,7 +9021,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9055,14 +9047,14 @@
         <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9075,43 +9067,43 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9126,16 +9118,16 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9146,7 +9138,7 @@
         <v>271</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>44</v>
@@ -9532,7 +9524,7 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>288</v>
@@ -9551,7 +9543,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9569,7 +9561,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9584,16 +9576,16 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9601,7 +9593,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9627,13 +9619,13 @@
         <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9647,7 +9639,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9662,28 +9654,28 @@
         <v>171</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9698,7 +9690,7 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9707,7 +9699,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9715,7 +9707,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9741,16 +9733,16 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9763,43 +9755,43 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9814,16 +9806,16 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9831,7 +9823,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9857,10 +9849,10 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9875,43 +9867,43 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9926,16 +9918,16 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9943,11 +9935,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9969,10 +9961,10 @@
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9987,43 +9979,43 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10038,16 +10030,16 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10055,11 +10047,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10081,13 +10073,13 @@
         <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10101,43 +10093,43 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10152,16 +10144,16 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10169,11 +10161,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10195,10 +10187,10 @@
         <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10249,7 +10241,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10264,16 +10256,16 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10281,11 +10273,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10307,10 +10299,10 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10325,43 +10317,43 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10376,16 +10368,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10393,7 +10385,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10419,13 +10411,13 @@
         <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10475,7 +10467,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10490,16 +10482,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10507,7 +10499,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10533,14 +10525,14 @@
         <v>203</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -10553,43 +10545,43 @@
         <v>44</v>
       </c>
       <c r="S77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10604,16 +10596,16 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10621,7 +10613,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10647,14 +10639,14 @@
         <v>136</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -10682,10 +10674,10 @@
         <v>139</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10703,7 +10695,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10718,16 +10710,16 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10735,7 +10727,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10758,19 +10750,19 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -10819,7 +10811,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10834,7 +10826,7 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>125</v>
@@ -10843,7 +10835,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10851,7 +10843,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10874,19 +10866,19 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -10935,7 +10927,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10950,7 +10942,7 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>125</v>
@@ -10959,7 +10951,7 @@
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10967,7 +10959,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10990,19 +10982,19 @@
         <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11051,7 +11043,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11063,10 +11055,10 @@
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>125</v>
@@ -11083,7 +11075,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11195,7 +11187,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11309,11 +11301,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11335,10 +11327,10 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>150</v>
@@ -11393,7 +11385,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11425,7 +11417,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11451,14 +11443,14 @@
         <v>136</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11486,10 +11478,10 @@
         <v>139</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11507,7 +11499,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11522,7 +11514,7 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>125</v>
@@ -11531,7 +11523,7 @@
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11539,7 +11531,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11565,14 +11557,14 @@
         <v>227</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -11621,7 +11613,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11645,7 +11637,7 @@
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11653,7 +11645,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11679,13 +11671,13 @@
         <v>236</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>240</v>
@@ -11737,7 +11729,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11761,7 +11753,7 @@
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11769,7 +11761,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11795,14 +11787,14 @@
         <v>272</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11851,7 +11843,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11875,7 +11867,7 @@
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11883,7 +11875,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11912,11 +11904,11 @@
         <v>245</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -11944,10 +11936,10 @@
         <v>171</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>44</v>
@@ -11965,7 +11957,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11989,7 +11981,7 @@
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11997,7 +11989,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12023,14 +12015,14 @@
         <v>210</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -12079,7 +12071,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12088,13 +12080,13 @@
         <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>125</v>
@@ -12103,7 +12095,7 @@
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12111,7 +12103,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12137,10 +12129,10 @@
         <v>203</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12191,7 +12183,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12206,7 +12198,7 @@
         <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>125</v>
@@ -12223,7 +12215,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12246,19 +12238,19 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12307,7 +12299,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12322,10 +12314,10 @@
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
@@ -12339,7 +12331,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12451,7 +12443,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12565,11 +12557,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12591,10 +12583,10 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>150</v>
@@ -12649,7 +12641,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12681,7 +12673,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12707,16 +12699,16 @@
         <v>136</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12765,7 +12757,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>51</v>
@@ -12780,16 +12772,16 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12797,7 +12789,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12823,16 +12815,16 @@
         <v>218</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
@@ -12881,7 +12873,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12896,16 +12888,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12913,11 +12905,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12936,16 +12928,16 @@
         <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12995,7 +12987,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13010,7 +13002,7 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>125</v>
@@ -13019,7 +13011,7 @@
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -13027,7 +13019,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13053,16 +13045,16 @@
         <v>210</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13111,7 +13103,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13126,10 +13118,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
@@ -13143,7 +13135,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13166,19 +13158,19 @@
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
@@ -13227,7 +13219,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13242,7 +13234,7 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>125</v>
@@ -13259,7 +13251,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13371,7 +13363,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13485,11 +13477,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13511,10 +13503,10 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>150</v>
@@ -13569,7 +13561,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13601,7 +13593,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13624,16 +13616,16 @@
         <v>52</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13683,7 +13675,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>51</v>
@@ -13707,7 +13699,7 @@
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -13715,7 +13707,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13741,10 +13733,10 @@
         <v>71</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13774,10 +13766,10 @@
         <v>171</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -13795,7 +13787,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>51</v>
@@ -13810,7 +13802,7 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>125</v>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="524">
   <si>
     <t>Path</t>
   </si>
@@ -1201,6 +1201,12 @@
   </si>
   <si>
     <t>Usual-Residence</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">Zip
@@ -8063,9 +8069,11 @@
       <c r="W55" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X55" s="2"/>
+      <c r="X55" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8799,7 +8807,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8821,7 +8829,7 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>358</v>
@@ -9138,7 +9146,7 @@
         <v>271</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>44</v>
@@ -9524,7 +9532,7 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>288</v>
@@ -9541,9 +9549,11 @@
       <c r="W68" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X68" s="2"/>
+      <c r="X68" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -10277,7 +10287,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10299,7 +10309,7 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>358</v>
@@ -10613,7 +10623,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10639,14 +10649,14 @@
         <v>136</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -10674,10 +10684,10 @@
         <v>139</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
@@ -10695,7 +10705,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10710,16 +10720,16 @@
         <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10727,7 +10737,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10750,19 +10760,19 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -10811,7 +10821,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10826,7 +10836,7 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>125</v>
@@ -10835,7 +10845,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10843,7 +10853,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10866,19 +10876,19 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -10927,7 +10937,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10942,7 +10952,7 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>125</v>
@@ -10951,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10959,7 +10969,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10982,19 +10992,19 @@
         <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11043,7 +11053,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11055,10 +11065,10 @@
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>125</v>
@@ -11075,7 +11085,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11187,7 +11197,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11301,11 +11311,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11327,10 +11337,10 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>150</v>
@@ -11385,7 +11395,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11417,7 +11427,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11443,14 +11453,14 @@
         <v>136</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11478,10 +11488,10 @@
         <v>139</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11499,7 +11509,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11514,7 +11524,7 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>125</v>
@@ -11523,7 +11533,7 @@
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11531,7 +11541,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11557,14 +11567,14 @@
         <v>227</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -11613,7 +11623,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11637,7 +11647,7 @@
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11645,7 +11655,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11671,13 +11681,13 @@
         <v>236</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>240</v>
@@ -11729,7 +11739,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11753,7 +11763,7 @@
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11761,7 +11771,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11787,14 +11797,14 @@
         <v>272</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11843,7 +11853,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11867,7 +11877,7 @@
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11875,7 +11885,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11904,11 +11914,11 @@
         <v>245</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -11936,10 +11946,10 @@
         <v>171</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>44</v>
@@ -11957,7 +11967,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11981,7 +11991,7 @@
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11989,7 +11999,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12015,14 +12025,14 @@
         <v>210</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -12071,7 +12081,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12080,13 +12090,13 @@
         <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>125</v>
@@ -12095,7 +12105,7 @@
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12103,7 +12113,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12129,10 +12139,10 @@
         <v>203</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12183,7 +12193,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12198,7 +12208,7 @@
         <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>125</v>
@@ -12215,7 +12225,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12238,19 +12248,19 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12299,7 +12309,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12314,10 +12324,10 @@
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
@@ -12331,7 +12341,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12443,7 +12453,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12557,11 +12567,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12583,10 +12593,10 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>150</v>
@@ -12641,7 +12651,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12673,7 +12683,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12699,16 +12709,16 @@
         <v>136</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12757,7 +12767,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>51</v>
@@ -12772,16 +12782,16 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12789,7 +12799,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12815,16 +12825,16 @@
         <v>218</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
@@ -12873,7 +12883,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12888,16 +12898,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12905,11 +12915,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12928,16 +12938,16 @@
         <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12987,7 +12997,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13002,7 +13012,7 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>125</v>
@@ -13011,7 +13021,7 @@
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -13019,7 +13029,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13045,16 +13055,16 @@
         <v>210</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13103,7 +13113,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13118,10 +13128,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
@@ -13135,7 +13145,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13158,19 +13168,19 @@
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
@@ -13219,7 +13229,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13234,7 +13244,7 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>125</v>
@@ -13251,7 +13261,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13363,7 +13373,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13477,11 +13487,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13503,10 +13513,10 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>150</v>
@@ -13561,7 +13571,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13593,7 +13603,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13616,16 +13626,16 @@
         <v>52</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13675,7 +13685,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>51</v>
@@ -13699,7 +13709,7 @@
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -13707,7 +13717,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13733,10 +13743,10 @@
         <v>71</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13766,28 +13776,28 @@
         <v>171</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>51</v>
@@ -13802,7 +13812,7 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>125</v>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="504">
   <si>
     <t>Path</t>
   </si>
@@ -391,7 +391,7 @@
     <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
   </si>
   <si>
-    <t>genderidentity</t>
+    <t>genderIdentity</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-genderIdentity}
@@ -888,10 +888,6 @@
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:use}
-</t>
-  </si>
-  <si>
     <t>addr</t>
   </si>
   <si>
@@ -1010,46 +1006,6 @@
   </si>
   <si>
     <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.line.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Patient.address.line.extension</t>
-  </si>
-  <si>
-    <t>censusTract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-censusTract}
-</t>
-  </si>
-  <si>
-    <t>A geographic sub-unit delineated for demographic purposes.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=CEN]</t>
-  </si>
-  <si>
-    <t>Patient.address.line.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>Patient.address.city</t>
@@ -1198,25 +1154,6 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>Usual-Residence</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>Address-at-Diagnosis</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1802,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1812,7 +1749,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -5739,7 +5676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>271</v>
       </c>
@@ -5813,14 +5750,16 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>271</v>
@@ -5838,16 +5777,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5855,7 +5794,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5967,7 +5906,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6081,7 +6020,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6107,16 +6046,16 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6129,7 +6068,7 @@
         <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -6145,25 +6084,25 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6178,16 +6117,16 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6195,7 +6134,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6221,13 +6160,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6241,7 +6180,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6256,28 +6195,28 @@
         <v>171</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6292,7 +6231,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6301,7 +6240,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6309,7 +6248,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6335,16 +6274,16 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6357,43 +6296,43 @@
         <v>44</v>
       </c>
       <c r="S40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6408,16 +6347,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6425,7 +6364,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6451,10 +6390,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6469,43 +6408,43 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6520,28 +6459,28 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6551,13 +6490,13 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>53</v>
@@ -6581,7 +6520,7 @@
         <v>44</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>44</v>
@@ -6617,7 +6556,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6629,10 +6568,10 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6641,7 +6580,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6649,18 +6588,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6669,18 +6608,20 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6693,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>44</v>
@@ -6717,32 +6658,34 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6751,7 +6694,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6759,13 +6702,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6781,16 +6722,16 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6841,22 +6782,22 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6865,19 +6806,19 @@
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6887,22 +6828,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6917,7 +6858,7 @@
         <v>44</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>44</v>
@@ -6926,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>44</v>
@@ -6953,7 +6894,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6965,10 +6906,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6977,7 +6918,7 @@
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6985,11 +6926,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7011,12 +6952,14 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7029,7 +6972,7 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>44</v>
@@ -7065,7 +7008,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7080,7 +7023,7 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7089,19 +7032,19 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7111,7 +7054,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7120,18 +7063,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7143,7 +7086,7 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7179,7 +7122,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7194,7 +7137,7 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
@@ -7203,19 +7146,19 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7225,25 +7168,27 @@
         <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7267,13 +7212,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7291,7 +7236,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7306,28 +7251,28 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7337,25 +7282,29 @@
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7367,7 +7316,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7403,7 +7352,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7418,24 +7367,24 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7446,30 +7395,32 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7517,13 +7468,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7532,24 +7483,24 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7560,29 +7511,31 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>203</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7595,7 +7548,7 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>44</v>
@@ -7631,43 +7584,41 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7679,29 +7630,25 @@
         <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7749,31 +7696,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7781,18 +7728,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7804,15 +7751,17 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7861,19 +7810,19 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>125</v>
@@ -7893,11 +7842,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>147</v>
+        <v>400</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7910,24 +7859,26 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>164</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7963,19 +7914,19 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7990,7 +7941,7 @@
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -8005,9 +7956,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8015,34 +7966,32 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8052,10 +8001,10 @@
         <v>44</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8067,13 +8016,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8091,13 +8040,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8106,16 +8055,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8123,7 +8072,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8143,21 +8092,21 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8169,7 +8118,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8181,13 +8130,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8205,7 +8154,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8220,16 +8169,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8237,7 +8186,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8248,7 +8197,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8257,22 +8206,22 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>303</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>304</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8285,7 +8234,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8321,13 +8270,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8336,24 +8285,24 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>310</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8364,28 +8313,30 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8397,7 +8348,7 @@
         <v>44</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>44</v>
@@ -8433,13 +8384,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8448,28 +8399,28 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8479,25 +8430,27 @@
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8509,7 +8462,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8521,13 +8474,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8545,7 +8498,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>336</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8560,16 +8513,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8577,11 +8530,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8597,21 +8550,21 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8623,7 +8576,7 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>44</v>
@@ -8659,7 +8612,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8668,34 +8621,34 @@
         <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8705,22 +8658,22 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8771,7 +8724,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8786,56 +8739,60 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>353</v>
+        <v>443</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8847,7 +8804,7 @@
         <v>44</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>44</v>
@@ -8883,13 +8840,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8898,24 +8855,24 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8929,26 +8886,24 @@
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8997,7 +8952,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>124</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9009,10 +8964,10 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -9021,49 +8976,49 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>164</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9075,7 +9030,7 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>44</v>
@@ -9111,22 +9066,22 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9135,52 +9090,50 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>274</v>
+        <v>402</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9229,7 +9182,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9241,19 +9194,19 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9261,7 +9214,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>281</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9269,7 +9222,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -9284,16 +9237,20 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>122</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9317,13 +9274,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9341,10 +9298,10 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>124</v>
+        <v>454</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>51</v>
@@ -9353,19 +9310,19 @@
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>459</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9373,18 +9330,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>282</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9396,18 +9353,20 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>164</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>165</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9443,87 +9402,85 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>128</v>
+        <v>462</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>467</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>44</v>
+        <v>471</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>71</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>284</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>285</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9532,10 +9489,10 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9547,13 +9504,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9571,13 +9528,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9586,16 +9543,16 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>292</v>
+        <v>477</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9603,7 +9560,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>293</v>
+        <v>478</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9626,18 +9583,20 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>294</v>
+        <v>479</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>295</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9649,7 +9608,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9661,13 +9620,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9685,7 +9644,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9700,16 +9659,16 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9717,7 +9676,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>302</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9728,31 +9687,31 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>303</v>
+        <v>485</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>305</v>
+        <v>487</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>306</v>
+        <v>488</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9765,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9801,13 +9760,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>308</v>
+        <v>484</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9816,24 +9775,24 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>309</v>
+        <v>489</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>311</v>
+        <v>490</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9844,25 +9803,25 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>312</v>
+        <v>122</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9877,7 +9836,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9913,22 +9872,22 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>316</v>
+        <v>125</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9937,46 +9896,48 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>331</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9989,7 +9950,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -10025,22 +9986,22 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>337</v>
+        <v>125</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10049,7 +10010,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10057,41 +10018,43 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10103,7 +10066,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10139,22 +10102,22 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10163,29 +10126,29 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10194,15 +10157,17 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>494</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10251,10 +10216,10 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>51</v>
@@ -10266,38 +10231,38 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>353</v>
+        <v>158</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>354</v>
+        <v>498</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>355</v>
+        <v>499</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
@@ -10306,13 +10271,13 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>382</v>
+        <v>500</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>358</v>
+        <v>501</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10327,7 +10292,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10339,13 +10304,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>44</v>
+        <v>502</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10363,10 +10328,10 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>360</v>
+        <v>499</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>51</v>
@@ -10378,3457 +10343,23 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>361</v>
+        <v>503</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN105" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN105">
+  <autoFilter ref="A1:AN75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13838,7 +10369,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="524">
   <si>
     <t>Path</t>
   </si>
@@ -888,6 +888,10 @@
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>addr</t>
   </si>
   <si>
@@ -1006,6 +1010,46 @@
   </si>
   <si>
     <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.line.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Patient.address.line.extension</t>
+  </si>
+  <si>
+    <t>censusTract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-censusTract}
+</t>
+  </si>
+  <si>
+    <t>A geographic sub-unit delineated for demographic purposes.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=CEN]</t>
+  </si>
+  <si>
+    <t>Patient.address.line.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Patient.address.city</t>
@@ -1154,6 +1198,25 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>Usual-Residence</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>Address-at-Diagnosis</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1739,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1749,7 +1812,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -5676,7 +5739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>271</v>
       </c>
@@ -5750,16 +5813,14 @@
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>271</v>
@@ -5777,16 +5838,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5794,7 +5855,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5906,7 +5967,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6020,7 +6081,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6046,16 +6107,16 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6068,7 +6129,7 @@
         <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -6084,7 +6145,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -6102,7 +6163,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6117,7 +6178,7 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6126,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6134,7 +6195,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6160,13 +6221,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6180,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6195,10 +6256,10 @@
         <v>171</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6216,7 +6277,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6231,7 +6292,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6240,7 +6301,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6248,7 +6309,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6274,16 +6335,16 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6296,7 +6357,7 @@
         <v>44</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>44</v>
@@ -6332,7 +6393,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6347,7 +6408,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6356,7 +6417,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6364,7 +6425,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6390,10 +6451,10 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6408,7 +6469,7 @@
         <v>44</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>44</v>
@@ -6444,7 +6505,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6459,7 +6520,7 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6468,19 +6529,19 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6490,13 +6551,13 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>53</v>
@@ -6520,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>44</v>
@@ -6556,7 +6617,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6568,10 +6629,10 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6580,7 +6641,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6588,18 +6649,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6608,20 +6669,18 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6634,7 +6693,7 @@
         <v>44</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>44</v>
@@ -6658,34 +6717,32 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>128</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6694,7 +6751,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6702,11 +6759,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6722,16 +6781,16 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6782,22 +6841,22 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6806,19 +6865,19 @@
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6828,22 +6887,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6858,7 +6917,7 @@
         <v>44</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>44</v>
@@ -6867,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>44</v>
@@ -6894,7 +6953,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6906,10 +6965,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6918,7 +6977,7 @@
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6926,11 +6985,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6952,14 +7011,12 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6972,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>44</v>
@@ -7008,7 +7065,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7023,7 +7080,7 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7032,19 +7089,19 @@
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7054,7 +7111,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7063,18 +7120,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7086,7 +7143,7 @@
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7122,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7137,7 +7194,7 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
@@ -7146,19 +7203,19 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7168,27 +7225,25 @@
         <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7212,13 +7267,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7236,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7251,28 +7306,28 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7282,29 +7337,25 @@
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>374</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7316,7 +7367,7 @@
         <v>44</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>44</v>
@@ -7352,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7367,24 +7418,24 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7395,32 +7446,30 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7468,13 +7517,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7483,24 +7532,24 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7511,31 +7560,29 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7548,7 +7595,7 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>44</v>
@@ -7584,41 +7631,43 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>395</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7630,25 +7679,29 @@
         <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7696,31 +7749,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7728,18 +7781,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7751,17 +7804,15 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7810,19 +7861,19 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>125</v>
@@ -7842,11 +7893,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7859,26 +7910,24 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>164</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>165</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7914,19 +7963,19 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7941,7 +7990,7 @@
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7956,9 +8005,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7966,32 +8015,34 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8001,10 +8052,10 @@
         <v>44</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8016,13 +8067,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8040,13 +8091,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8055,16 +8106,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>410</v>
+        <v>291</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8072,7 +8123,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>293</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8092,21 +8143,21 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8118,7 +8169,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8130,13 +8181,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8154,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8169,16 +8220,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8186,7 +8237,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8197,7 +8248,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8206,22 +8257,22 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8234,7 +8285,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8270,13 +8321,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8285,24 +8336,24 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>310</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8313,30 +8364,28 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8348,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>44</v>
@@ -8384,13 +8433,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8399,28 +8448,28 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8430,27 +8479,25 @@
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8462,7 +8509,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8474,13 +8521,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8498,7 +8545,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>336</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8513,16 +8560,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8530,11 +8577,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8550,21 +8597,21 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8576,7 +8623,7 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>44</v>
@@ -8612,7 +8659,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8621,34 +8668,34 @@
         <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8658,22 +8705,22 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8724,7 +8771,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8739,60 +8786,56 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8804,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>44</v>
@@ -8840,13 +8883,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8855,24 +8898,24 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8886,24 +8929,26 @@
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>122</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8952,7 +8997,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8964,10 +9009,10 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -8976,49 +9021,49 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9030,7 +9075,7 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>44</v>
@@ -9066,22 +9111,22 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9090,50 +9135,52 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C65" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9182,7 +9229,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9194,19 +9241,19 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9214,7 +9261,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>281</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9222,7 +9269,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -9237,20 +9284,16 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9274,13 +9317,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9298,10 +9341,10 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>51</v>
@@ -9310,19 +9353,19 @@
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>459</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9330,18 +9373,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9353,20 +9396,18 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>463</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9402,85 +9443,87 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>467</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>283</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>471</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>284</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9489,10 +9532,10 @@
         <v>44</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9504,13 +9547,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9528,13 +9571,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9543,16 +9586,16 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>292</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9560,7 +9603,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>293</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9583,20 +9626,18 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>480</v>
+        <v>295</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9608,7 +9649,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9620,13 +9661,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9644,7 +9685,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>478</v>
+        <v>300</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9659,16 +9700,16 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9676,7 +9717,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9687,31 +9728,31 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>303</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9724,7 +9765,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9760,13 +9801,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9775,24 +9816,24 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>311</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9803,25 +9844,25 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9836,7 +9877,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9872,22 +9913,22 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9896,48 +9937,46 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>331</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9950,7 +9989,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9986,22 +10025,22 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10010,7 +10049,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10018,43 +10057,41 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10066,7 +10103,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10102,22 +10139,22 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10126,29 +10163,29 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10157,17 +10194,15 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>494</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10216,10 +10251,10 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>493</v>
+        <v>352</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>51</v>
@@ -10231,38 +10266,38 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
@@ -10271,13 +10306,13 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>500</v>
+        <v>382</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>501</v>
+        <v>358</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10292,7 +10327,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10304,13 +10339,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>502</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10328,10 +10363,10 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>51</v>
@@ -10343,23 +10378,3457 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10369,7 +13838,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cbs-patient.xlsx
+++ b/output/StructureDefinition-cbs-patient.xlsx
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>Case Based Surveillance Birth Sex Extension</t>
+    <t>Case Based Surveillance Sex Assigned at Birth Extension</t>
   </si>
   <si>
     <t>A code classifying the person's sex assigned at birth.</t>
